--- a/Customer/Cust 2025/Cargo PRIMA 2025.xlsx
+++ b/Customer/Cust 2025/Cargo PRIMA 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42A025-3E61-475C-B371-7E18A11D3F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF2F6A-BC39-43A9-98CB-7319BBD3DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -159,11 +159,30 @@
     <t>餐桌Dining table</t>
   </si>
   <si>
-    <t>退税TR</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <r>
-      <t>运费</t>
+      <t>F1258
+运费</t>
     </r>
     <r>
       <rPr>
@@ -172,29 +191,9 @@
         <rFont val="Comic Sans MS"/>
         <family val="4"/>
       </rPr>
-      <t>973RMB</t>
+      <t>973RMB
+退税TR</t>
     </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
 </sst>
 </file>
@@ -406,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,70 +518,13 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +533,15 @@
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,10 +549,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -923,7 +916,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1003,11 +996,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1019,10 +1012,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -1039,16 +1032,16 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="37.5">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="46">
         <v>45665</v>
       </c>
       <c r="F5" s="28" t="s">
@@ -1077,21 +1070,21 @@
       <c r="M5" s="30">
         <v>39</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="49">
         <v>45670</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="49">
         <v>45712</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="37.5">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="28" t="s">
         <v>27</v>
       </c>
@@ -1118,19 +1111,19 @@
       <c r="M6" s="30">
         <v>28</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="21">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="50" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="30">
@@ -1153,19 +1146,19 @@
       <c r="M7" s="30">
         <v>39</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="30">
         <v>48</v>
       </c>
@@ -1185,15 +1178,15 @@
       <c r="M8" s="30">
         <v>23</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="64"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="28" t="s">
         <v>32</v>
       </c>
@@ -1220,17 +1213,17 @@
       <c r="M9" s="30">
         <v>47</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="32" t="s">
         <v>35</v>
       </c>
@@ -1251,273 +1244,273 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="1:16" ht="42">
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:16" ht="21">
+      <c r="B11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="53">
         <v>13924006350</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="56">
         <v>45672</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>2</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="53">
         <v>1478</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="39">
         <f>K11*L11*M11/1000000*2</f>
         <v>0.32198399999999999</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>78</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <v>48</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="38">
         <v>43</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="63">
+        <v>45675</v>
+      </c>
+      <c r="O11" s="63">
+        <v>45703</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="21">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="21">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="39">
+      <c r="G12" s="60"/>
+      <c r="H12" s="38">
         <v>1</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="40">
+      <c r="I12" s="54"/>
+      <c r="J12" s="39">
         <f t="shared" ref="J12:J18" si="0">K12*L12*M12/1000000</f>
         <v>2.494008</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>99</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <v>134</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="38">
         <v>188</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="41"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" spans="1:16" ht="21">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="39">
+        <v>41</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="38">
         <v>1</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="40">
+      <c r="I13" s="54"/>
+      <c r="J13" s="39">
         <f t="shared" si="0"/>
         <v>2.4490620000000001</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="38">
         <v>186</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <v>99</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="38">
         <v>133</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="41"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="39">
+        <v>42</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="38">
         <v>1</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="40">
+      <c r="I14" s="54"/>
+      <c r="J14" s="39">
         <f t="shared" si="0"/>
         <v>0.10374</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <v>76</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <v>91</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <v>15</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="41"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="60"/>
     </row>
     <row r="15" spans="1:16" ht="21">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="39">
+        <v>43</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="38">
         <v>1</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="40">
+      <c r="I15" s="54"/>
+      <c r="J15" s="39">
         <f t="shared" si="0"/>
         <v>1.81044</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <v>90</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="38">
         <v>107</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="38">
         <v>188</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="41"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="60"/>
     </row>
     <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="39">
+        <v>44</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="38">
         <v>1</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="40">
+      <c r="I16" s="54"/>
+      <c r="J16" s="39">
         <f t="shared" si="0"/>
         <v>1.7482500000000001</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="38">
         <v>90</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="38">
         <v>111</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="38">
         <v>175</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="41"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="60"/>
     </row>
     <row r="17" spans="2:16" ht="21">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="39">
+        <v>45</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="38">
         <v>1</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="40">
+      <c r="I17" s="54"/>
+      <c r="J17" s="39">
         <f t="shared" si="0"/>
         <v>1.2261599999999999</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="38">
         <v>80</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="38">
         <v>131</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="38">
         <v>117</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="41"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" spans="2:16" ht="21">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="50"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="39">
+        <v>46</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="38">
         <v>1</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="40">
+      <c r="I18" s="55"/>
+      <c r="J18" s="39">
         <f t="shared" si="0"/>
         <v>2.0717599999999998</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <v>116</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="38">
         <v>95</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="38">
         <v>188</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="42"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
@@ -1532,23 +1525,13 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="P5:P9"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="21">
+    <mergeCell ref="P11:P18"/>
     <mergeCell ref="I11:I18"/>
     <mergeCell ref="N11:N18"/>
     <mergeCell ref="O11:O18"/>
@@ -1558,6 +1541,17 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="G11:G18"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="O5:O9"/>
+    <mergeCell ref="P5:P9"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1649,11 +1643,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1665,10 +1659,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
